--- a/other_files/3rd west zone- jaydeep/3rd West Zone.xlsx
+++ b/other_files/3rd west zone- jaydeep/3rd West Zone.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sites\MRA\other_files\3rd west zone- jaydeep\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665"/>
   </bookViews>
@@ -11,7 +16,10 @@
     <sheet name="DD detail" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -3721,8 +3729,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3997,8 +4005,44 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4045,7 +4089,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4077,9 +4121,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4111,6 +4156,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4286,14 +4332,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O404"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
@@ -4309,7 +4355,7 @@
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="23.25">
+    <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="50" t="s">
         <v>11</v>
       </c>
@@ -4319,7 +4365,7 @@
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
     </row>
-    <row r="3" spans="1:14" ht="18.75">
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="51" t="s">
         <v>12</v>
       </c>
@@ -4329,7 +4375,7 @@
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
     </row>
-    <row r="4" spans="1:14" ht="21" customHeight="1">
+    <row r="4" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4370,7 +4416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18.75">
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -4408,7 +4454,7 @@
       </c>
       <c r="N5" s="24"/>
     </row>
-    <row r="6" spans="1:14" ht="18.75">
+    <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -4446,7 +4492,7 @@
       </c>
       <c r="N6" s="24"/>
     </row>
-    <row r="7" spans="1:14" ht="18.75">
+    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -4484,7 +4530,7 @@
       </c>
       <c r="N7" s="24"/>
     </row>
-    <row r="8" spans="1:14" ht="18.75">
+    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -4522,7 +4568,7 @@
       </c>
       <c r="N8" s="24"/>
     </row>
-    <row r="9" spans="1:14" ht="18.75">
+    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -4559,7 +4605,7 @@
         <v>9870535396</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75">
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -4596,7 +4642,7 @@
         <v>9869773998</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75">
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -4633,7 +4679,7 @@
         <v>9764057547</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18.75">
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -4670,7 +4716,7 @@
         <v>9892218965</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18.75">
+    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -4708,7 +4754,7 @@
       </c>
       <c r="N13" s="23"/>
     </row>
-    <row r="14" spans="1:14" ht="18.75">
+    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -4745,7 +4791,7 @@
       </c>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:14" ht="18.75">
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -4782,7 +4828,7 @@
         <v>7498543984</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18.75">
+    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -4819,7 +4865,7 @@
         <v>3403960771</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18.75">
+    <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -4849,7 +4895,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="23"/>
     </row>
-    <row r="18" spans="1:14" ht="18.75">
+    <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -4889,7 +4935,7 @@
       </c>
       <c r="N18" s="23"/>
     </row>
-    <row r="19" spans="1:14" ht="18.75">
+    <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -4926,7 +4972,7 @@
         <v>9820363389</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18.75">
+    <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -4963,7 +5009,7 @@
         <v>9822055317</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18.75">
+    <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -5000,7 +5046,7 @@
         <v>9969072051</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18.75">
+    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -5039,7 +5085,7 @@
         <v>9890110300</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="48">
+    <row r="23" spans="1:14" ht="48" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -5077,7 +5123,7 @@
       </c>
       <c r="N23" s="23"/>
     </row>
-    <row r="24" spans="1:14" ht="18.75">
+    <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -5114,7 +5160,7 @@
         <v>9011045554</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="48">
+    <row r="25" spans="1:14" ht="48" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -5151,7 +5197,7 @@
         <v>9011045554</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18.75">
+    <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -5188,7 +5234,7 @@
         <v>8108064520</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18.75">
+    <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -5227,7 +5273,7 @@
         <v>9960127568</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18.75">
+    <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -5264,7 +5310,7 @@
         <v>9820648395</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18.75">
+    <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -5301,7 +5347,7 @@
         <v>9096100295</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18.75">
+    <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -5340,7 +5386,7 @@
         <v>9833486994</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18.75">
+    <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -5377,7 +5423,7 @@
       </c>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:14" ht="18.75">
+    <row r="32" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -5414,7 +5460,7 @@
         <v>8976033066</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="18.75">
+    <row r="33" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -5451,7 +5497,7 @@
         <v>9594939517</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="18.75">
+    <row r="34" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -5488,7 +5534,7 @@
         <v>9594959120</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="18.75">
+    <row r="35" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -5527,7 +5573,7 @@
         <v>9850839870</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="18.75">
+    <row r="36" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -5564,7 +5610,7 @@
         <v>9833865699</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="18.75">
+    <row r="37" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -5603,7 +5649,7 @@
         <v>9619390626</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="18.75">
+    <row r="38" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -5642,7 +5688,7 @@
         <v>9822445155</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="37.5" customHeight="1">
+    <row r="39" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -5681,7 +5727,7 @@
         <v>9870032124</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="18.75">
+    <row r="40" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -5718,7 +5764,7 @@
         <v>9503420559</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="18.75">
+    <row r="41" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -5750,7 +5796,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="30.75" customHeight="1">
+    <row r="42" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -5787,7 +5833,7 @@
         <v>9867594213</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="18.75">
+    <row r="43" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -5824,7 +5870,7 @@
         <v>9820007488</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="18.75">
+    <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -5861,7 +5907,7 @@
       </c>
       <c r="M44" s="4"/>
     </row>
-    <row r="45" spans="1:14" ht="18.75">
+    <row r="45" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -5898,7 +5944,7 @@
         <v>9041710961</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="18.75">
+    <row r="46" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -5935,7 +5981,7 @@
         <v>9702243338</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="18.75">
+    <row r="47" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -5972,7 +6018,7 @@
         <v>9975139529</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="18.75">
+    <row r="48" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>44</v>
       </c>
@@ -6011,7 +6057,7 @@
         <v>7387777774</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="18.75">
+    <row r="49" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>45</v>
       </c>
@@ -6048,7 +6094,7 @@
         <v>9869059296</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="18.75">
+    <row r="50" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>46</v>
       </c>
@@ -6084,7 +6130,7 @@
       <c r="M50" s="4"/>
       <c r="O50" s="25"/>
     </row>
-    <row r="51" spans="1:15" ht="18.75">
+    <row r="51" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>47</v>
       </c>
@@ -6123,7 +6169,7 @@
         <v>9881598699</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="18.75">
+    <row r="52" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>48</v>
       </c>
@@ -6160,7 +6206,7 @@
         <v>9664396242</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="18.75">
+    <row r="53" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>49</v>
       </c>
@@ -6197,7 +6243,7 @@
         <v>9561571100</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="18.75">
+    <row r="54" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>50</v>
       </c>
@@ -6234,7 +6280,7 @@
         <v>9821775920</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="18.75">
+    <row r="55" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>51</v>
       </c>
@@ -6274,7 +6320,7 @@
       </c>
       <c r="N55" s="23"/>
     </row>
-    <row r="56" spans="1:15" ht="18.75">
+    <row r="56" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>52</v>
       </c>
@@ -6311,7 +6357,7 @@
         <v>9820988707</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="18.75">
+    <row r="57" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>53</v>
       </c>
@@ -6350,7 +6396,7 @@
         <v>9833780002</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="18.75">
+    <row r="58" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>54</v>
       </c>
@@ -6389,7 +6435,7 @@
         <v>9657186444</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="18.75">
+    <row r="59" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>55</v>
       </c>
@@ -6428,7 +6474,7 @@
         <v>9820877561</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="18.75">
+    <row r="60" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>56</v>
       </c>
@@ -6465,7 +6511,7 @@
         <v>9404996686</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="18.75">
+    <row r="61" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>57</v>
       </c>
@@ -6502,7 +6548,7 @@
         <v>9404996686</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="18.75">
+    <row r="62" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>58</v>
       </c>
@@ -6541,7 +6587,7 @@
         <v>8956244352</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="18.75">
+    <row r="63" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>59</v>
       </c>
@@ -6580,7 +6626,7 @@
         <v>7276004800</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="18.75">
+    <row r="64" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>60</v>
       </c>
@@ -6619,7 +6665,7 @@
         <v>8108988080</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="18.75">
+    <row r="65" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>61</v>
       </c>
@@ -6658,7 +6704,7 @@
         <v>9860170570</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="18.75">
+    <row r="66" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>62</v>
       </c>
@@ -6695,7 +6741,7 @@
         <v>9421013677</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="18.75">
+    <row r="67" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>63</v>
       </c>
@@ -6732,7 +6778,7 @@
         <v>8275483923</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="18.75">
+    <row r="68" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>64</v>
       </c>
@@ -6769,7 +6815,7 @@
         <v>9930632778</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="18.75">
+    <row r="69" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>65</v>
       </c>
@@ -6808,7 +6854,7 @@
         <v>7738782094</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="18.75">
+    <row r="70" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>66</v>
       </c>
@@ -6845,7 +6891,7 @@
         <v>9820151176</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="18.75">
+    <row r="71" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>67</v>
       </c>
@@ -6882,7 +6928,7 @@
         <v>9820151176</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="18.75">
+    <row r="72" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>68</v>
       </c>
@@ -6921,7 +6967,7 @@
         <v>9820042952</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="18.75">
+    <row r="73" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>69</v>
       </c>
@@ -6960,7 +7006,7 @@
         <v>8108910209</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="18.75">
+    <row r="74" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>70</v>
       </c>
@@ -6999,7 +7045,7 @@
         <v>9820267090</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="18.75">
+    <row r="75" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>71</v>
       </c>
@@ -7037,7 +7083,7 @@
       <c r="M75" s="4"/>
       <c r="N75" s="23"/>
     </row>
-    <row r="76" spans="1:15" ht="18.75">
+    <row r="76" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>72</v>
       </c>
@@ -7068,7 +7114,7 @@
         <v>7588813399</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="18.75">
+    <row r="77" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>73</v>
       </c>
@@ -7105,7 +7151,7 @@
         <v>9850243821</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="18.75">
+    <row r="78" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>74</v>
       </c>
@@ -7142,7 +7188,7 @@
         <v>9921111042</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="18.75">
+    <row r="79" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>75</v>
       </c>
@@ -7183,7 +7229,7 @@
       <c r="N79" s="29"/>
       <c r="O79" s="28"/>
     </row>
-    <row r="80" spans="1:15" ht="18.75">
+    <row r="80" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>76</v>
       </c>
@@ -7222,7 +7268,7 @@
         <v>9403051797</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="18.75">
+    <row r="81" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>77</v>
       </c>
@@ -7257,7 +7303,7 @@
         <v>8087978000</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="18.75">
+    <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>78</v>
       </c>
@@ -7294,7 +7340,7 @@
         <v>9422233607</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="18.75">
+    <row r="83" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>79</v>
       </c>
@@ -7329,7 +7375,7 @@
         <v>9987173837</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="18.75">
+    <row r="84" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>80</v>
       </c>
@@ -7368,7 +7414,7 @@
         <v>8888672467</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="18.75">
+    <row r="85" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>81</v>
       </c>
@@ -7407,7 +7453,7 @@
         <v>8855022516</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="18.75">
+    <row r="86" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>82</v>
       </c>
@@ -7445,7 +7491,7 @@
       </c>
       <c r="N86" s="23"/>
     </row>
-    <row r="87" spans="1:14" ht="18.75">
+    <row r="87" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>83</v>
       </c>
@@ -7483,7 +7529,7 @@
       </c>
       <c r="N87" s="23"/>
     </row>
-    <row r="88" spans="1:14" ht="18.75">
+    <row r="88" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>84</v>
       </c>
@@ -7521,7 +7567,7 @@
       </c>
       <c r="N88" s="23"/>
     </row>
-    <row r="89" spans="1:14" ht="18.75">
+    <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>85</v>
       </c>
@@ -7560,7 +7606,7 @@
         <v>8080129755</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="18.75">
+    <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>86</v>
       </c>
@@ -7595,7 +7641,7 @@
       </c>
       <c r="M90" s="4"/>
     </row>
-    <row r="91" spans="1:14" ht="18.75">
+    <row r="91" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>87</v>
       </c>
@@ -7628,7 +7674,7 @@
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
     </row>
-    <row r="92" spans="1:14" ht="18.75">
+    <row r="92" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>88</v>
       </c>
@@ -7661,7 +7707,7 @@
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
     </row>
-    <row r="93" spans="1:14" ht="18.75">
+    <row r="93" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>89</v>
       </c>
@@ -7694,7 +7740,7 @@
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
     </row>
-    <row r="94" spans="1:14" ht="18.75">
+    <row r="94" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>90</v>
       </c>
@@ -7729,7 +7775,7 @@
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
     </row>
-    <row r="95" spans="1:14" ht="18.75">
+    <row r="95" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>91</v>
       </c>
@@ -7764,7 +7810,7 @@
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
     </row>
-    <row r="96" spans="1:14" ht="18.75">
+    <row r="96" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>92</v>
       </c>
@@ -7799,7 +7845,7 @@
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
     </row>
-    <row r="97" spans="1:13" ht="18.75">
+    <row r="97" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>93</v>
       </c>
@@ -7832,7 +7878,7 @@
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
     </row>
-    <row r="98" spans="1:13" ht="24.75" customHeight="1">
+    <row r="98" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>94</v>
       </c>
@@ -7869,7 +7915,7 @@
       </c>
       <c r="M98" s="4"/>
     </row>
-    <row r="99" spans="1:13" ht="18.75">
+    <row r="99" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>95</v>
       </c>
@@ -7906,7 +7952,7 @@
       </c>
       <c r="M99" s="4"/>
     </row>
-    <row r="100" spans="1:13" ht="18.75">
+    <row r="100" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>96</v>
       </c>
@@ -7941,7 +7987,7 @@
       </c>
       <c r="M100" s="4"/>
     </row>
-    <row r="101" spans="1:13" ht="18.75">
+    <row r="101" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>97</v>
       </c>
@@ -7976,7 +8022,7 @@
       </c>
       <c r="M101" s="4"/>
     </row>
-    <row r="102" spans="1:13" ht="18.75">
+    <row r="102" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>98</v>
       </c>
@@ -8011,7 +8057,7 @@
       </c>
       <c r="M102" s="4"/>
     </row>
-    <row r="103" spans="1:13" ht="18.75">
+    <row r="103" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>99</v>
       </c>
@@ -8046,7 +8092,7 @@
       </c>
       <c r="M103" s="4"/>
     </row>
-    <row r="104" spans="1:13" ht="18.75">
+    <row r="104" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>100</v>
       </c>
@@ -8083,7 +8129,7 @@
       </c>
       <c r="M104" s="4"/>
     </row>
-    <row r="105" spans="1:13" ht="18.75">
+    <row r="105" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>101</v>
       </c>
@@ -8120,7 +8166,7 @@
       </c>
       <c r="M105" s="4"/>
     </row>
-    <row r="106" spans="1:13" ht="18.75">
+    <row r="106" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>102</v>
       </c>
@@ -8153,7 +8199,7 @@
       </c>
       <c r="M106" s="4"/>
     </row>
-    <row r="107" spans="1:13" ht="18.75">
+    <row r="107" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>103</v>
       </c>
@@ -8188,7 +8234,7 @@
       </c>
       <c r="M107" s="4"/>
     </row>
-    <row r="108" spans="1:13" ht="18.75">
+    <row r="108" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>104</v>
       </c>
@@ -8225,7 +8271,7 @@
       </c>
       <c r="M108" s="4"/>
     </row>
-    <row r="109" spans="1:13" ht="18.75">
+    <row r="109" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>105</v>
       </c>
@@ -8262,7 +8308,7 @@
       </c>
       <c r="M109" s="4"/>
     </row>
-    <row r="110" spans="1:13" ht="18.75">
+    <row r="110" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>106</v>
       </c>
@@ -8299,7 +8345,7 @@
       </c>
       <c r="M110" s="4"/>
     </row>
-    <row r="111" spans="1:13" ht="18.75">
+    <row r="111" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>107</v>
       </c>
@@ -8328,7 +8374,7 @@
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
     </row>
-    <row r="112" spans="1:13" ht="18.75">
+    <row r="112" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>108</v>
       </c>
@@ -8365,7 +8411,7 @@
       </c>
       <c r="M112" s="4"/>
     </row>
-    <row r="113" spans="1:13" ht="18.75">
+    <row r="113" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>109</v>
       </c>
@@ -8394,7 +8440,7 @@
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
     </row>
-    <row r="114" spans="1:13" ht="18.75">
+    <row r="114" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>110</v>
       </c>
@@ -8423,7 +8469,7 @@
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
     </row>
-    <row r="115" spans="1:13" ht="18.75">
+    <row r="115" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>111</v>
       </c>
@@ -8452,7 +8498,7 @@
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
     </row>
-    <row r="116" spans="1:13" ht="18.75">
+    <row r="116" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>112</v>
       </c>
@@ -8481,7 +8527,7 @@
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
     </row>
-    <row r="117" spans="1:13" ht="18.75">
+    <row r="117" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>113</v>
       </c>
@@ -8510,7 +8556,7 @@
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
     </row>
-    <row r="118" spans="1:13" ht="18.75">
+    <row r="118" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>114</v>
       </c>
@@ -8539,7 +8585,7 @@
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
     </row>
-    <row r="119" spans="1:13" ht="18.75">
+    <row r="119" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>115</v>
       </c>
@@ -8568,7 +8614,7 @@
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
     </row>
-    <row r="120" spans="1:13" ht="18.75">
+    <row r="120" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>116</v>
       </c>
@@ -8603,7 +8649,7 @@
       </c>
       <c r="M120" s="4"/>
     </row>
-    <row r="121" spans="1:13" ht="18.75">
+    <row r="121" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>117</v>
       </c>
@@ -8638,7 +8684,7 @@
       </c>
       <c r="M121" s="4"/>
     </row>
-    <row r="122" spans="1:13" ht="18.75">
+    <row r="122" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>118</v>
       </c>
@@ -8665,7 +8711,7 @@
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
     </row>
-    <row r="123" spans="1:13" ht="18.75">
+    <row r="123" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>119</v>
       </c>
@@ -8700,7 +8746,7 @@
       </c>
       <c r="M123" s="4"/>
     </row>
-    <row r="124" spans="1:13" ht="18.75">
+    <row r="124" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>120</v>
       </c>
@@ -8737,7 +8783,7 @@
       </c>
       <c r="M124" s="4"/>
     </row>
-    <row r="125" spans="1:13" ht="18.75">
+    <row r="125" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>121</v>
       </c>
@@ -8771,7 +8817,7 @@
       </c>
       <c r="M125" s="4"/>
     </row>
-    <row r="126" spans="1:13" ht="18.75">
+    <row r="126" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>122</v>
       </c>
@@ -8808,7 +8854,7 @@
       </c>
       <c r="M126" s="4"/>
     </row>
-    <row r="127" spans="1:13" ht="18.75">
+    <row r="127" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>123</v>
       </c>
@@ -8843,7 +8889,7 @@
       </c>
       <c r="M127" s="4"/>
     </row>
-    <row r="128" spans="1:13" ht="18.75">
+    <row r="128" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>124</v>
       </c>
@@ -8870,7 +8916,7 @@
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
     </row>
-    <row r="129" spans="1:13" ht="18.75">
+    <row r="129" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>125</v>
       </c>
@@ -8897,7 +8943,7 @@
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
     </row>
-    <row r="130" spans="1:13" ht="18.75">
+    <row r="130" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>126</v>
       </c>
@@ -8930,7 +8976,7 @@
       </c>
       <c r="M130" s="4"/>
     </row>
-    <row r="131" spans="1:13" ht="18.75">
+    <row r="131" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>127</v>
       </c>
@@ -8967,7 +9013,7 @@
       </c>
       <c r="M131" s="4"/>
     </row>
-    <row r="132" spans="1:13" ht="18.75">
+    <row r="132" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>128</v>
       </c>
@@ -9002,7 +9048,7 @@
       </c>
       <c r="M132" s="4"/>
     </row>
-    <row r="133" spans="1:13" ht="18.75">
+    <row r="133" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>129</v>
       </c>
@@ -9035,7 +9081,7 @@
       </c>
       <c r="M133" s="4"/>
     </row>
-    <row r="134" spans="1:13" ht="18.75">
+    <row r="134" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>130</v>
       </c>
@@ -9070,7 +9116,7 @@
       </c>
       <c r="M134" s="4"/>
     </row>
-    <row r="135" spans="1:13" ht="18.75">
+    <row r="135" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>131</v>
       </c>
@@ -9105,7 +9151,7 @@
       </c>
       <c r="M135" s="4"/>
     </row>
-    <row r="136" spans="1:13" ht="18.75">
+    <row r="136" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>132</v>
       </c>
@@ -9140,7 +9186,7 @@
       </c>
       <c r="M136" s="4"/>
     </row>
-    <row r="137" spans="1:13" ht="18.75">
+    <row r="137" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>133</v>
       </c>
@@ -9177,7 +9223,7 @@
       </c>
       <c r="M137" s="4"/>
     </row>
-    <row r="138" spans="1:13" ht="18.75">
+    <row r="138" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>134</v>
       </c>
@@ -9214,7 +9260,7 @@
       </c>
       <c r="M138" s="4"/>
     </row>
-    <row r="139" spans="1:13" ht="48">
+    <row r="139" spans="1:13" ht="48" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>135</v>
       </c>
@@ -9251,7 +9297,7 @@
       </c>
       <c r="M139" s="4"/>
     </row>
-    <row r="140" spans="1:13" ht="18.75">
+    <row r="140" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>136</v>
       </c>
@@ -9288,7 +9334,7 @@
       </c>
       <c r="M140" s="4"/>
     </row>
-    <row r="141" spans="1:13" ht="18.75">
+    <row r="141" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>137</v>
       </c>
@@ -9323,7 +9369,7 @@
       </c>
       <c r="M141" s="4"/>
     </row>
-    <row r="142" spans="1:13" ht="18.75">
+    <row r="142" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>138</v>
       </c>
@@ -9360,7 +9406,7 @@
       </c>
       <c r="M142" s="4"/>
     </row>
-    <row r="143" spans="1:13" ht="18.75">
+    <row r="143" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>139</v>
       </c>
@@ -9395,7 +9441,7 @@
       </c>
       <c r="M143" s="4"/>
     </row>
-    <row r="144" spans="1:13" ht="18.75">
+    <row r="144" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>140</v>
       </c>
@@ -9430,7 +9476,7 @@
       </c>
       <c r="M144" s="4"/>
     </row>
-    <row r="145" spans="1:13" ht="18.75">
+    <row r="145" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>141</v>
       </c>
@@ -9467,7 +9513,7 @@
       </c>
       <c r="M145" s="4"/>
     </row>
-    <row r="146" spans="1:13" ht="18.75">
+    <row r="146" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>142</v>
       </c>
@@ -9504,7 +9550,7 @@
       </c>
       <c r="M146" s="4"/>
     </row>
-    <row r="147" spans="1:13" ht="18.75">
+    <row r="147" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>143</v>
       </c>
@@ -9535,7 +9581,7 @@
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
     </row>
-    <row r="148" spans="1:13" ht="18.75">
+    <row r="148" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>144</v>
       </c>
@@ -9570,7 +9616,7 @@
       </c>
       <c r="M148" s="4"/>
     </row>
-    <row r="149" spans="1:13" ht="18.75">
+    <row r="149" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>145</v>
       </c>
@@ -9605,7 +9651,7 @@
       </c>
       <c r="M149" s="4"/>
     </row>
-    <row r="150" spans="1:13" ht="18.75">
+    <row r="150" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>146</v>
       </c>
@@ -9642,7 +9688,7 @@
       </c>
       <c r="M150" s="4"/>
     </row>
-    <row r="151" spans="1:13" ht="18.75">
+    <row r="151" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>147</v>
       </c>
@@ -9677,7 +9723,7 @@
       </c>
       <c r="M151" s="4"/>
     </row>
-    <row r="152" spans="1:13" ht="18.75">
+    <row r="152" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>148</v>
       </c>
@@ -9712,7 +9758,7 @@
       </c>
       <c r="M152" s="4"/>
     </row>
-    <row r="153" spans="1:13" ht="18.75">
+    <row r="153" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>149</v>
       </c>
@@ -9747,7 +9793,7 @@
       </c>
       <c r="M153" s="4"/>
     </row>
-    <row r="154" spans="1:13" ht="18.75">
+    <row r="154" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>150</v>
       </c>
@@ -9782,7 +9828,7 @@
       </c>
       <c r="M154" s="4"/>
     </row>
-    <row r="155" spans="1:13" ht="18.75">
+    <row r="155" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>151</v>
       </c>
@@ -9817,7 +9863,7 @@
       </c>
       <c r="M155" s="4"/>
     </row>
-    <row r="156" spans="1:13" ht="18.75">
+    <row r="156" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>152</v>
       </c>
@@ -9852,7 +9898,7 @@
       </c>
       <c r="M156" s="4"/>
     </row>
-    <row r="157" spans="1:13" ht="18.75">
+    <row r="157" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>153</v>
       </c>
@@ -9887,7 +9933,7 @@
       </c>
       <c r="M157" s="4"/>
     </row>
-    <row r="158" spans="1:13" ht="18.75">
+    <row r="158" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>154</v>
       </c>
@@ -9922,7 +9968,7 @@
       </c>
       <c r="M158" s="4"/>
     </row>
-    <row r="159" spans="1:13" ht="18.75">
+    <row r="159" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>155</v>
       </c>
@@ -9957,7 +10003,7 @@
       </c>
       <c r="M159" s="4"/>
     </row>
-    <row r="160" spans="1:13" ht="18.75">
+    <row r="160" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>156</v>
       </c>
@@ -9992,7 +10038,7 @@
       </c>
       <c r="M160" s="4"/>
     </row>
-    <row r="161" spans="1:13" ht="18.75">
+    <row r="161" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>157</v>
       </c>
@@ -10019,7 +10065,7 @@
       <c r="L161" s="4"/>
       <c r="M161" s="4"/>
     </row>
-    <row r="162" spans="1:13" ht="18.75">
+    <row r="162" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>158</v>
       </c>
@@ -10044,7 +10090,7 @@
       <c r="L162" s="4"/>
       <c r="M162" s="4"/>
     </row>
-    <row r="163" spans="1:13" ht="18.75">
+    <row r="163" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>159</v>
       </c>
@@ -10073,7 +10119,7 @@
       <c r="L163" s="4"/>
       <c r="M163" s="4"/>
     </row>
-    <row r="164" spans="1:13" ht="18.75">
+    <row r="164" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>160</v>
       </c>
@@ -10102,7 +10148,7 @@
       <c r="L164" s="4"/>
       <c r="M164" s="4"/>
     </row>
-    <row r="165" spans="1:13" ht="18.75">
+    <row r="165" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>161</v>
       </c>
@@ -10137,7 +10183,7 @@
       </c>
       <c r="M165" s="4"/>
     </row>
-    <row r="166" spans="1:13" ht="18.75">
+    <row r="166" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>162</v>
       </c>
@@ -10170,7 +10216,7 @@
       <c r="L166" s="4"/>
       <c r="M166" s="4"/>
     </row>
-    <row r="167" spans="1:13" ht="18.75">
+    <row r="167" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>163</v>
       </c>
@@ -10197,7 +10243,7 @@
       <c r="L167" s="4"/>
       <c r="M167" s="4"/>
     </row>
-    <row r="168" spans="1:13" ht="18.75">
+    <row r="168" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>164</v>
       </c>
@@ -10224,7 +10270,7 @@
       <c r="L168" s="4"/>
       <c r="M168" s="4"/>
     </row>
-    <row r="169" spans="1:13" ht="18.75">
+    <row r="169" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>165</v>
       </c>
@@ -10251,7 +10297,7 @@
       <c r="L169" s="4"/>
       <c r="M169" s="4"/>
     </row>
-    <row r="170" spans="1:13" ht="18.75">
+    <row r="170" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>166</v>
       </c>
@@ -10278,7 +10324,7 @@
       <c r="L170" s="4"/>
       <c r="M170" s="4"/>
     </row>
-    <row r="171" spans="1:13" ht="18.75">
+    <row r="171" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>167</v>
       </c>
@@ -10305,7 +10351,7 @@
       <c r="L171" s="4"/>
       <c r="M171" s="4"/>
     </row>
-    <row r="172" spans="1:13" ht="18.75">
+    <row r="172" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>168</v>
       </c>
@@ -10332,7 +10378,7 @@
       <c r="L172" s="4"/>
       <c r="M172" s="4"/>
     </row>
-    <row r="173" spans="1:13" ht="18.75">
+    <row r="173" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>169</v>
       </c>
@@ -10359,7 +10405,7 @@
       <c r="L173" s="4"/>
       <c r="M173" s="4"/>
     </row>
-    <row r="174" spans="1:13" ht="18.75">
+    <row r="174" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>170</v>
       </c>
@@ -10388,7 +10434,7 @@
       <c r="L174" s="4"/>
       <c r="M174" s="4"/>
     </row>
-    <row r="175" spans="1:13" ht="18.75">
+    <row r="175" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>171</v>
       </c>
@@ -10415,7 +10461,7 @@
       <c r="L175" s="4"/>
       <c r="M175" s="4"/>
     </row>
-    <row r="176" spans="1:13" ht="18.75">
+    <row r="176" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>172</v>
       </c>
@@ -10444,7 +10490,7 @@
       <c r="L176" s="4"/>
       <c r="M176" s="4"/>
     </row>
-    <row r="177" spans="1:13" ht="18.75">
+    <row r="177" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>173</v>
       </c>
@@ -10471,7 +10517,7 @@
       <c r="L177" s="4"/>
       <c r="M177" s="4"/>
     </row>
-    <row r="178" spans="1:13" ht="18.75">
+    <row r="178" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>174</v>
       </c>
@@ -10498,7 +10544,7 @@
       <c r="L178" s="4"/>
       <c r="M178" s="4"/>
     </row>
-    <row r="179" spans="1:13" ht="18.75">
+    <row r="179" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>175</v>
       </c>
@@ -10525,7 +10571,7 @@
       <c r="L179" s="4"/>
       <c r="M179" s="4"/>
     </row>
-    <row r="180" spans="1:13" ht="18.75">
+    <row r="180" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>176</v>
       </c>
@@ -10554,7 +10600,7 @@
       <c r="L180" s="4"/>
       <c r="M180" s="4"/>
     </row>
-    <row r="181" spans="1:13" ht="18.75">
+    <row r="181" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>177</v>
       </c>
@@ -10583,7 +10629,7 @@
       <c r="L181" s="4"/>
       <c r="M181" s="4"/>
     </row>
-    <row r="182" spans="1:13" ht="18.75">
+    <row r="182" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>178</v>
       </c>
@@ -10610,7 +10656,7 @@
       <c r="L182" s="4"/>
       <c r="M182" s="4"/>
     </row>
-    <row r="183" spans="1:13" ht="18.75">
+    <row r="183" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>179</v>
       </c>
@@ -10639,7 +10685,7 @@
       <c r="L183" s="4"/>
       <c r="M183" s="4"/>
     </row>
-    <row r="184" spans="1:13" ht="18.75">
+    <row r="184" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>180</v>
       </c>
@@ -10668,7 +10714,7 @@
       <c r="L184" s="4"/>
       <c r="M184" s="4"/>
     </row>
-    <row r="185" spans="1:13" ht="18.75">
+    <row r="185" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>181</v>
       </c>
@@ -10703,7 +10749,7 @@
       </c>
       <c r="M185" s="4"/>
     </row>
-    <row r="186" spans="1:13" ht="18.75">
+    <row r="186" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>182</v>
       </c>
@@ -10740,7 +10786,7 @@
       </c>
       <c r="M186" s="4"/>
     </row>
-    <row r="187" spans="1:13" ht="18.75">
+    <row r="187" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>183</v>
       </c>
@@ -10775,7 +10821,7 @@
       </c>
       <c r="M187" s="4"/>
     </row>
-    <row r="188" spans="1:13" ht="18.75">
+    <row r="188" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>184</v>
       </c>
@@ -10812,7 +10858,7 @@
       </c>
       <c r="M188" s="4"/>
     </row>
-    <row r="189" spans="1:13" ht="18.75">
+    <row r="189" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>185</v>
       </c>
@@ -10849,7 +10895,7 @@
       </c>
       <c r="M189" s="4"/>
     </row>
-    <row r="190" spans="1:13" ht="18.75">
+    <row r="190" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>186</v>
       </c>
@@ -10884,7 +10930,7 @@
       </c>
       <c r="M190" s="4"/>
     </row>
-    <row r="191" spans="1:13" ht="18.75">
+    <row r="191" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>187</v>
       </c>
@@ -10921,7 +10967,7 @@
       </c>
       <c r="M191" s="4"/>
     </row>
-    <row r="192" spans="1:13" ht="18.75">
+    <row r="192" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>188</v>
       </c>
@@ -10956,7 +11002,7 @@
       </c>
       <c r="M192" s="4"/>
     </row>
-    <row r="193" spans="1:14" ht="18.75">
+    <row r="193" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>189</v>
       </c>
@@ -10993,7 +11039,7 @@
       </c>
       <c r="M193" s="4"/>
     </row>
-    <row r="194" spans="1:14" ht="18.75">
+    <row r="194" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>190</v>
       </c>
@@ -11028,7 +11074,7 @@
       </c>
       <c r="M194" s="4"/>
     </row>
-    <row r="195" spans="1:14" ht="18.75">
+    <row r="195" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>191</v>
       </c>
@@ -11063,7 +11109,7 @@
       </c>
       <c r="M195" s="4"/>
     </row>
-    <row r="196" spans="1:14" ht="18.75">
+    <row r="196" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>192</v>
       </c>
@@ -11100,7 +11146,7 @@
       </c>
       <c r="M196" s="4"/>
     </row>
-    <row r="197" spans="1:14" ht="18.75">
+    <row r="197" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>193</v>
       </c>
@@ -11121,7 +11167,7 @@
       <c r="L197" s="4"/>
       <c r="M197" s="4"/>
     </row>
-    <row r="198" spans="1:14" ht="18.75">
+    <row r="198" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>194</v>
       </c>
@@ -11156,7 +11202,7 @@
       </c>
       <c r="M198" s="4"/>
     </row>
-    <row r="199" spans="1:14" ht="18.75">
+    <row r="199" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>195</v>
       </c>
@@ -11191,7 +11237,7 @@
       </c>
       <c r="M199" s="4"/>
     </row>
-    <row r="200" spans="1:14" ht="18.75">
+    <row r="200" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>196</v>
       </c>
@@ -11226,7 +11272,7 @@
       </c>
       <c r="M200" s="4"/>
     </row>
-    <row r="201" spans="1:14" ht="18.75">
+    <row r="201" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>197</v>
       </c>
@@ -11261,7 +11307,7 @@
       </c>
       <c r="M201" s="4"/>
     </row>
-    <row r="202" spans="1:14" ht="18.75">
+    <row r="202" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>198</v>
       </c>
@@ -11296,7 +11342,7 @@
       </c>
       <c r="M202" s="4"/>
     </row>
-    <row r="203" spans="1:14" ht="48">
+    <row r="203" spans="1:14" ht="48" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>199</v>
       </c>
@@ -11331,7 +11377,7 @@
       </c>
       <c r="M203" s="4"/>
     </row>
-    <row r="204" spans="1:14" ht="18.75">
+    <row r="204" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>200</v>
       </c>
@@ -11369,7 +11415,7 @@
       <c r="M204" s="4"/>
       <c r="N204" s="23"/>
     </row>
-    <row r="205" spans="1:14" ht="18.75">
+    <row r="205" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>201</v>
       </c>
@@ -11398,7 +11444,7 @@
       <c r="L205" s="4"/>
       <c r="M205" s="4"/>
     </row>
-    <row r="206" spans="1:14" ht="18.75">
+    <row r="206" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>202</v>
       </c>
@@ -11425,7 +11471,7 @@
       <c r="L206" s="4"/>
       <c r="M206" s="4"/>
     </row>
-    <row r="207" spans="1:14" ht="18.75">
+    <row r="207" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>203</v>
       </c>
@@ -11454,7 +11500,7 @@
       <c r="L207" s="4"/>
       <c r="M207" s="4"/>
     </row>
-    <row r="208" spans="1:14" ht="18.75">
+    <row r="208" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>204</v>
       </c>
@@ -11481,7 +11527,7 @@
       <c r="L208" s="4"/>
       <c r="M208" s="4"/>
     </row>
-    <row r="209" spans="1:14" ht="18.75">
+    <row r="209" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>205</v>
       </c>
@@ -11510,7 +11556,7 @@
       <c r="L209" s="4"/>
       <c r="M209" s="4"/>
     </row>
-    <row r="210" spans="1:14" ht="18.75">
+    <row r="210" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>206</v>
       </c>
@@ -11539,7 +11585,7 @@
       <c r="L210" s="4"/>
       <c r="M210" s="4"/>
     </row>
-    <row r="211" spans="1:14" ht="18.75">
+    <row r="211" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>207</v>
       </c>
@@ -11566,7 +11612,7 @@
       <c r="L211" s="4"/>
       <c r="M211" s="4"/>
     </row>
-    <row r="212" spans="1:14" ht="18.75">
+    <row r="212" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>208</v>
       </c>
@@ -11595,7 +11641,7 @@
       <c r="L212" s="4"/>
       <c r="M212" s="4"/>
     </row>
-    <row r="213" spans="1:14" ht="32.25">
+    <row r="213" spans="1:14" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>209</v>
       </c>
@@ -11625,7 +11671,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="214" spans="1:14" ht="18.75">
+    <row r="214" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>210</v>
       </c>
@@ -11662,7 +11708,7 @@
       </c>
       <c r="M214" s="4"/>
     </row>
-    <row r="215" spans="1:14" ht="32.25">
+    <row r="215" spans="1:14" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>211</v>
       </c>
@@ -11697,7 +11743,7 @@
       </c>
       <c r="M215" s="4"/>
     </row>
-    <row r="216" spans="1:14" ht="18.75">
+    <row r="216" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>212</v>
       </c>
@@ -11732,7 +11778,7 @@
       </c>
       <c r="M216" s="4"/>
     </row>
-    <row r="217" spans="1:14" ht="18.75">
+    <row r="217" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>213</v>
       </c>
@@ -11769,7 +11815,7 @@
       </c>
       <c r="M217" s="4"/>
     </row>
-    <row r="218" spans="1:14" ht="18.75">
+    <row r="218" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>214</v>
       </c>
@@ -11806,7 +11852,7 @@
       </c>
       <c r="M218" s="4"/>
     </row>
-    <row r="219" spans="1:14" ht="18.75">
+    <row r="219" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>215</v>
       </c>
@@ -11843,7 +11889,7 @@
       </c>
       <c r="M219" s="4"/>
     </row>
-    <row r="220" spans="1:14" ht="18.75">
+    <row r="220" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>216</v>
       </c>
@@ -11880,7 +11926,7 @@
       </c>
       <c r="M220" s="4"/>
     </row>
-    <row r="221" spans="1:14" ht="18.75">
+    <row r="221" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>217</v>
       </c>
@@ -11909,7 +11955,7 @@
       <c r="L221" s="4"/>
       <c r="M221" s="4"/>
     </row>
-    <row r="222" spans="1:14" ht="18.75">
+    <row r="222" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>218</v>
       </c>
@@ -11938,7 +11984,7 @@
       <c r="L222" s="4"/>
       <c r="M222" s="4"/>
     </row>
-    <row r="223" spans="1:14" ht="18.75">
+    <row r="223" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>219</v>
       </c>
@@ -11967,7 +12013,7 @@
       <c r="L223" s="4"/>
       <c r="M223" s="4"/>
     </row>
-    <row r="224" spans="1:14" ht="18.75">
+    <row r="224" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>220</v>
       </c>
@@ -11996,7 +12042,7 @@
       <c r="L224" s="4"/>
       <c r="M224" s="4"/>
     </row>
-    <row r="225" spans="1:13" ht="18.75">
+    <row r="225" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>221</v>
       </c>
@@ -12025,7 +12071,7 @@
       <c r="L225" s="4"/>
       <c r="M225" s="4"/>
     </row>
-    <row r="226" spans="1:13" ht="18.75">
+    <row r="226" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>222</v>
       </c>
@@ -12054,7 +12100,7 @@
       <c r="L226" s="4"/>
       <c r="M226" s="4"/>
     </row>
-    <row r="227" spans="1:13" ht="18.75">
+    <row r="227" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>223</v>
       </c>
@@ -12091,7 +12137,7 @@
       </c>
       <c r="M227" s="4"/>
     </row>
-    <row r="228" spans="1:13" ht="18.75">
+    <row r="228" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>224</v>
       </c>
@@ -12128,7 +12174,7 @@
       </c>
       <c r="M228" s="4"/>
     </row>
-    <row r="229" spans="1:13" ht="18.75">
+    <row r="229" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>225</v>
       </c>
@@ -12165,7 +12211,7 @@
       </c>
       <c r="M229" s="4"/>
     </row>
-    <row r="230" spans="1:13" ht="18.75">
+    <row r="230" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>226</v>
       </c>
@@ -12202,7 +12248,7 @@
       </c>
       <c r="M230" s="4"/>
     </row>
-    <row r="231" spans="1:13" ht="18.75">
+    <row r="231" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>227</v>
       </c>
@@ -12239,7 +12285,7 @@
       </c>
       <c r="M231" s="4"/>
     </row>
-    <row r="232" spans="1:13" ht="30.75">
+    <row r="232" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>228</v>
       </c>
@@ -12276,7 +12322,7 @@
       </c>
       <c r="M232" s="4"/>
     </row>
-    <row r="233" spans="1:13" ht="18.75">
+    <row r="233" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>229</v>
       </c>
@@ -12313,7 +12359,7 @@
       </c>
       <c r="M233" s="4"/>
     </row>
-    <row r="234" spans="1:13" ht="18.75">
+    <row r="234" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>230</v>
       </c>
@@ -12350,7 +12396,7 @@
       </c>
       <c r="M234" s="4"/>
     </row>
-    <row r="235" spans="1:13" ht="18.75">
+    <row r="235" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>231</v>
       </c>
@@ -12387,7 +12433,7 @@
       </c>
       <c r="M235" s="4"/>
     </row>
-    <row r="236" spans="1:13" ht="18.75">
+    <row r="236" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>232</v>
       </c>
@@ -12424,7 +12470,7 @@
       </c>
       <c r="M236" s="4"/>
     </row>
-    <row r="237" spans="1:13" ht="18.75">
+    <row r="237" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>233</v>
       </c>
@@ -12461,7 +12507,7 @@
       </c>
       <c r="M237" s="4"/>
     </row>
-    <row r="238" spans="1:13" ht="18.75">
+    <row r="238" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>234</v>
       </c>
@@ -12496,7 +12542,7 @@
       </c>
       <c r="M238" s="4"/>
     </row>
-    <row r="239" spans="1:13" ht="48">
+    <row r="239" spans="1:13" ht="48" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>235</v>
       </c>
@@ -12531,7 +12577,7 @@
       </c>
       <c r="M239" s="4"/>
     </row>
-    <row r="240" spans="1:13" ht="18.75">
+    <row r="240" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>236</v>
       </c>
@@ -12568,7 +12614,7 @@
       </c>
       <c r="M240" s="4"/>
     </row>
-    <row r="241" spans="1:13" ht="18.75">
+    <row r="241" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>237</v>
       </c>
@@ -12603,7 +12649,7 @@
       </c>
       <c r="M241" s="4"/>
     </row>
-    <row r="242" spans="1:13" ht="18.75">
+    <row r="242" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>238</v>
       </c>
@@ -12638,7 +12684,7 @@
       </c>
       <c r="M242" s="4"/>
     </row>
-    <row r="243" spans="1:13" ht="18.75">
+    <row r="243" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>239</v>
       </c>
@@ -12675,7 +12721,7 @@
       </c>
       <c r="M243" s="4"/>
     </row>
-    <row r="244" spans="1:13" ht="18.75">
+    <row r="244" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>240</v>
       </c>
@@ -12712,7 +12758,7 @@
       </c>
       <c r="M244" s="4"/>
     </row>
-    <row r="245" spans="1:13" ht="18.75">
+    <row r="245" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>241</v>
       </c>
@@ -12741,7 +12787,7 @@
       <c r="L245" s="4"/>
       <c r="M245" s="4"/>
     </row>
-    <row r="246" spans="1:13" ht="18.75">
+    <row r="246" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>242</v>
       </c>
@@ -12770,7 +12816,7 @@
       <c r="L246" s="4"/>
       <c r="M246" s="4"/>
     </row>
-    <row r="247" spans="1:13" ht="18.75">
+    <row r="247" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>243</v>
       </c>
@@ -12791,7 +12837,7 @@
       <c r="L247" s="4"/>
       <c r="M247" s="4"/>
     </row>
-    <row r="248" spans="1:13" ht="18.75">
+    <row r="248" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>244</v>
       </c>
@@ -12826,7 +12872,7 @@
       </c>
       <c r="M248" s="4"/>
     </row>
-    <row r="249" spans="1:13" ht="18.75">
+    <row r="249" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>245</v>
       </c>
@@ -12861,7 +12907,7 @@
       </c>
       <c r="M249" s="4"/>
     </row>
-    <row r="250" spans="1:13" ht="18.75">
+    <row r="250" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>246</v>
       </c>
@@ -12898,7 +12944,7 @@
       </c>
       <c r="M250" s="4"/>
     </row>
-    <row r="251" spans="1:13" ht="18.75">
+    <row r="251" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>247</v>
       </c>
@@ -12933,7 +12979,7 @@
       </c>
       <c r="M251" s="4"/>
     </row>
-    <row r="252" spans="1:13" ht="18.75">
+    <row r="252" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>248</v>
       </c>
@@ -12970,7 +13016,7 @@
       </c>
       <c r="M252" s="4"/>
     </row>
-    <row r="253" spans="1:13" ht="18.75">
+    <row r="253" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>249</v>
       </c>
@@ -12999,7 +13045,7 @@
       <c r="L253" s="4"/>
       <c r="M253" s="4"/>
     </row>
-    <row r="254" spans="1:13" ht="18.75">
+    <row r="254" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>250</v>
       </c>
@@ -13028,7 +13074,7 @@
       <c r="L254" s="4"/>
       <c r="M254" s="4"/>
     </row>
-    <row r="255" spans="1:13" ht="18.75">
+    <row r="255" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>251</v>
       </c>
@@ -13065,7 +13111,7 @@
       </c>
       <c r="M255" s="4"/>
     </row>
-    <row r="256" spans="1:13" ht="18.75">
+    <row r="256" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>252</v>
       </c>
@@ -13102,7 +13148,7 @@
       </c>
       <c r="M256" s="4"/>
     </row>
-    <row r="257" spans="1:14" ht="18.75">
+    <row r="257" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>253</v>
       </c>
@@ -13139,7 +13185,7 @@
       </c>
       <c r="M257" s="4"/>
     </row>
-    <row r="258" spans="1:14" ht="18.75">
+    <row r="258" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>254</v>
       </c>
@@ -13168,7 +13214,7 @@
       <c r="L258" s="4"/>
       <c r="M258" s="4"/>
     </row>
-    <row r="259" spans="1:14" ht="18.75">
+    <row r="259" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>255</v>
       </c>
@@ -13205,7 +13251,7 @@
       </c>
       <c r="M259" s="4"/>
     </row>
-    <row r="260" spans="1:14" ht="18.75">
+    <row r="260" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>256</v>
       </c>
@@ -13240,7 +13286,7 @@
       </c>
       <c r="M260" s="4"/>
     </row>
-    <row r="261" spans="1:14" ht="32.25">
+    <row r="261" spans="1:14" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>257</v>
       </c>
@@ -13275,7 +13321,7 @@
       </c>
       <c r="M261" s="4"/>
     </row>
-    <row r="262" spans="1:14" ht="18.75">
+    <row r="262" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>258</v>
       </c>
@@ -13312,7 +13358,7 @@
       </c>
       <c r="M262" s="4"/>
     </row>
-    <row r="263" spans="1:14" ht="18.75">
+    <row r="263" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>259</v>
       </c>
@@ -13347,7 +13393,7 @@
       </c>
       <c r="M263" s="4"/>
     </row>
-    <row r="264" spans="1:14" ht="18.75">
+    <row r="264" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>260</v>
       </c>
@@ -13384,7 +13430,7 @@
       </c>
       <c r="M264" s="4"/>
     </row>
-    <row r="265" spans="1:14" ht="18.75">
+    <row r="265" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>261</v>
       </c>
@@ -13413,7 +13459,7 @@
       <c r="L265" s="4"/>
       <c r="M265" s="4"/>
     </row>
-    <row r="266" spans="1:14" ht="18.75">
+    <row r="266" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>262</v>
       </c>
@@ -13450,7 +13496,7 @@
       </c>
       <c r="M266" s="4"/>
     </row>
-    <row r="267" spans="1:14" ht="18.75">
+    <row r="267" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>263</v>
       </c>
@@ -13485,7 +13531,7 @@
       </c>
       <c r="M267" s="4"/>
     </row>
-    <row r="268" spans="1:14" ht="18.75">
+    <row r="268" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>264</v>
       </c>
@@ -13513,7 +13559,7 @@
       <c r="M268" s="4"/>
       <c r="N268" s="6"/>
     </row>
-    <row r="269" spans="1:14" ht="18.75">
+    <row r="269" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>265</v>
       </c>
@@ -13543,7 +13589,7 @@
       <c r="M269" s="4"/>
       <c r="N269" s="6"/>
     </row>
-    <row r="270" spans="1:14" ht="18.75">
+    <row r="270" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>266</v>
       </c>
@@ -13573,7 +13619,7 @@
       <c r="M270" s="4"/>
       <c r="N270" s="6"/>
     </row>
-    <row r="271" spans="1:14" ht="18.75">
+    <row r="271" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>267</v>
       </c>
@@ -13603,7 +13649,7 @@
       <c r="M271" s="4"/>
       <c r="N271" s="6"/>
     </row>
-    <row r="272" spans="1:14" ht="18.75">
+    <row r="272" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>268</v>
       </c>
@@ -13633,7 +13679,7 @@
       <c r="M272" s="4"/>
       <c r="N272" s="6"/>
     </row>
-    <row r="273" spans="1:14" ht="18.75">
+    <row r="273" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>269</v>
       </c>
@@ -13661,7 +13707,7 @@
       <c r="M273" s="4"/>
       <c r="N273" s="6"/>
     </row>
-    <row r="274" spans="1:14" ht="18.75">
+    <row r="274" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>270</v>
       </c>
@@ -13689,7 +13735,7 @@
       <c r="M274" s="4"/>
       <c r="N274" s="6"/>
     </row>
-    <row r="275" spans="1:14" ht="18.75">
+    <row r="275" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>271</v>
       </c>
@@ -13719,7 +13765,7 @@
       <c r="M275" s="4"/>
       <c r="N275" s="6"/>
     </row>
-    <row r="276" spans="1:14" ht="18.75">
+    <row r="276" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>272</v>
       </c>
@@ -13747,7 +13793,7 @@
       <c r="M276" s="4"/>
       <c r="N276" s="6"/>
     </row>
-    <row r="277" spans="1:14" ht="18.75">
+    <row r="277" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>273</v>
       </c>
@@ -13775,7 +13821,7 @@
       <c r="M277" s="4"/>
       <c r="N277" s="6"/>
     </row>
-    <row r="278" spans="1:14" ht="18.75">
+    <row r="278" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>274</v>
       </c>
@@ -13805,7 +13851,7 @@
       <c r="M278" s="4"/>
       <c r="N278" s="6"/>
     </row>
-    <row r="279" spans="1:14" ht="18.75">
+    <row r="279" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>275</v>
       </c>
@@ -13835,7 +13881,7 @@
       <c r="M279" s="4"/>
       <c r="N279" s="6"/>
     </row>
-    <row r="280" spans="1:14" ht="18.75">
+    <row r="280" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>276</v>
       </c>
@@ -13865,7 +13911,7 @@
       <c r="M280" s="4"/>
       <c r="N280" s="6"/>
     </row>
-    <row r="281" spans="1:14" ht="18.75">
+    <row r="281" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>277</v>
       </c>
@@ -13893,7 +13939,7 @@
       <c r="M281" s="4"/>
       <c r="N281" s="6"/>
     </row>
-    <row r="282" spans="1:14" ht="18.75">
+    <row r="282" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>278</v>
       </c>
@@ -13929,7 +13975,7 @@
       <c r="M282" s="4"/>
       <c r="N282" s="12"/>
     </row>
-    <row r="283" spans="1:14" ht="18.75">
+    <row r="283" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>279</v>
       </c>
@@ -13962,7 +14008,7 @@
       </c>
       <c r="M283" s="4"/>
     </row>
-    <row r="284" spans="1:14" ht="18.75">
+    <row r="284" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>280</v>
       </c>
@@ -13991,7 +14037,7 @@
       </c>
       <c r="M284" s="4"/>
     </row>
-    <row r="285" spans="1:14" ht="18.75">
+    <row r="285" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>281</v>
       </c>
@@ -14028,7 +14074,7 @@
       </c>
       <c r="M285" s="4"/>
     </row>
-    <row r="286" spans="1:14" ht="18.75">
+    <row r="286" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>282</v>
       </c>
@@ -14055,7 +14101,7 @@
       <c r="L286" s="4"/>
       <c r="M286" s="4"/>
     </row>
-    <row r="287" spans="1:14" ht="18.75">
+    <row r="287" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>283</v>
       </c>
@@ -14080,7 +14126,7 @@
       <c r="L287" s="4"/>
       <c r="M287" s="4"/>
     </row>
-    <row r="288" spans="1:14" ht="18.75">
+    <row r="288" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>284</v>
       </c>
@@ -14109,7 +14155,7 @@
       <c r="L288" s="4"/>
       <c r="M288" s="4"/>
     </row>
-    <row r="289" spans="1:13" ht="18.75">
+    <row r="289" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>285</v>
       </c>
@@ -14136,7 +14182,7 @@
       <c r="L289" s="4"/>
       <c r="M289" s="4"/>
     </row>
-    <row r="290" spans="1:13" ht="18.75">
+    <row r="290" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>286</v>
       </c>
@@ -14165,7 +14211,7 @@
       <c r="L290" s="4"/>
       <c r="M290" s="4"/>
     </row>
-    <row r="291" spans="1:13" ht="18.75">
+    <row r="291" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>287</v>
       </c>
@@ -14194,7 +14240,7 @@
       <c r="L291" s="4"/>
       <c r="M291" s="4"/>
     </row>
-    <row r="292" spans="1:13" ht="18.75">
+    <row r="292" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>288</v>
       </c>
@@ -14223,7 +14269,7 @@
       <c r="L292" s="4"/>
       <c r="M292" s="4"/>
     </row>
-    <row r="293" spans="1:13" ht="18.75">
+    <row r="293" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>289</v>
       </c>
@@ -14250,7 +14296,7 @@
       <c r="L293" s="4"/>
       <c r="M293" s="4"/>
     </row>
-    <row r="294" spans="1:13" ht="18.75">
+    <row r="294" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>290</v>
       </c>
@@ -14277,7 +14323,7 @@
       <c r="L294" s="4"/>
       <c r="M294" s="4"/>
     </row>
-    <row r="295" spans="1:13" ht="18.75">
+    <row r="295" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
         <v>291</v>
       </c>
@@ -14306,7 +14352,7 @@
       <c r="L295" s="4"/>
       <c r="M295" s="4"/>
     </row>
-    <row r="296" spans="1:13" ht="18.75">
+    <row r="296" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>292</v>
       </c>
@@ -14335,7 +14381,7 @@
       <c r="L296" s="4"/>
       <c r="M296" s="4"/>
     </row>
-    <row r="297" spans="1:13" ht="18.75">
+    <row r="297" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
         <v>293</v>
       </c>
@@ -14370,7 +14416,7 @@
       </c>
       <c r="M297" s="4"/>
     </row>
-    <row r="298" spans="1:13" ht="18.75">
+    <row r="298" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>294</v>
       </c>
@@ -14407,7 +14453,7 @@
       </c>
       <c r="M298" s="4"/>
     </row>
-    <row r="299" spans="1:13" ht="18.75">
+    <row r="299" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>295</v>
       </c>
@@ -14442,7 +14488,7 @@
       </c>
       <c r="M299" s="4"/>
     </row>
-    <row r="300" spans="1:13" ht="18.75">
+    <row r="300" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
         <v>296</v>
       </c>
@@ -14469,7 +14515,7 @@
       <c r="L300" s="4"/>
       <c r="M300" s="4"/>
     </row>
-    <row r="301" spans="1:13" ht="18.75">
+    <row r="301" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
         <v>297</v>
       </c>
@@ -14504,7 +14550,7 @@
       </c>
       <c r="M301" s="4"/>
     </row>
-    <row r="302" spans="1:13" ht="48">
+    <row r="302" spans="1:13" ht="48" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
         <v>298</v>
       </c>
@@ -14539,7 +14585,7 @@
       </c>
       <c r="M302" s="4"/>
     </row>
-    <row r="303" spans="1:13" ht="18.75">
+    <row r="303" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
         <v>299</v>
       </c>
@@ -14576,7 +14622,7 @@
       </c>
       <c r="M303" s="4"/>
     </row>
-    <row r="304" spans="1:13" ht="18.75">
+    <row r="304" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>300</v>
       </c>
@@ -14605,7 +14651,7 @@
       <c r="L304" s="4"/>
       <c r="M304" s="4"/>
     </row>
-    <row r="305" spans="1:13" ht="18.75">
+    <row r="305" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A305" s="3">
         <v>301</v>
       </c>
@@ -14632,7 +14678,7 @@
       <c r="L305" s="4"/>
       <c r="M305" s="4"/>
     </row>
-    <row r="306" spans="1:13" ht="18.75">
+    <row r="306" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
         <v>302</v>
       </c>
@@ -14659,7 +14705,7 @@
       <c r="L306" s="4"/>
       <c r="M306" s="4"/>
     </row>
-    <row r="307" spans="1:13" ht="18.75">
+    <row r="307" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
         <v>303</v>
       </c>
@@ -14686,7 +14732,7 @@
       <c r="L307" s="4"/>
       <c r="M307" s="4"/>
     </row>
-    <row r="308" spans="1:13" ht="18.75">
+    <row r="308" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
         <v>304</v>
       </c>
@@ -14723,7 +14769,7 @@
       </c>
       <c r="M308" s="4"/>
     </row>
-    <row r="309" spans="1:13" ht="18.75">
+    <row r="309" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A309" s="3">
         <v>305</v>
       </c>
@@ -14760,7 +14806,7 @@
       </c>
       <c r="M309" s="4"/>
     </row>
-    <row r="310" spans="1:13" ht="18.75">
+    <row r="310" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A310" s="3">
         <v>306</v>
       </c>
@@ -14795,7 +14841,7 @@
       </c>
       <c r="M310" s="4"/>
     </row>
-    <row r="311" spans="1:13" ht="18.75">
+    <row r="311" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
         <v>307</v>
       </c>
@@ -14822,7 +14868,7 @@
       <c r="L311" s="4"/>
       <c r="M311" s="4"/>
     </row>
-    <row r="312" spans="1:13" ht="18.75">
+    <row r="312" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
         <v>308</v>
       </c>
@@ -14859,7 +14905,7 @@
       </c>
       <c r="M312" s="4"/>
     </row>
-    <row r="313" spans="1:13" ht="26.25" customHeight="1">
+    <row r="313" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3">
         <v>309</v>
       </c>
@@ -14896,7 +14942,7 @@
       </c>
       <c r="M313" s="4"/>
     </row>
-    <row r="314" spans="1:13" ht="25.5" customHeight="1">
+    <row r="314" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3">
         <v>310</v>
       </c>
@@ -14933,7 +14979,7 @@
       </c>
       <c r="M314" s="4"/>
     </row>
-    <row r="315" spans="1:13" ht="18.75">
+    <row r="315" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A315" s="3">
         <v>311</v>
       </c>
@@ -14970,7 +15016,7 @@
       </c>
       <c r="M315" s="4"/>
     </row>
-    <row r="316" spans="1:13" ht="18.75">
+    <row r="316" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
         <v>312</v>
       </c>
@@ -15007,7 +15053,7 @@
       </c>
       <c r="M316" s="4"/>
     </row>
-    <row r="317" spans="1:13" ht="18.75">
+    <row r="317" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
         <v>313</v>
       </c>
@@ -15044,7 +15090,7 @@
       </c>
       <c r="M317" s="4"/>
     </row>
-    <row r="318" spans="1:13" ht="18.75">
+    <row r="318" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A318" s="3">
         <v>314</v>
       </c>
@@ -15073,7 +15119,7 @@
       <c r="L318" s="2"/>
       <c r="M318" s="4"/>
     </row>
-    <row r="319" spans="1:13" ht="18.75">
+    <row r="319" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A319" s="3">
         <v>315</v>
       </c>
@@ -15102,7 +15148,7 @@
       <c r="L319" s="4"/>
       <c r="M319" s="4"/>
     </row>
-    <row r="320" spans="1:13" ht="18.75">
+    <row r="320" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A320" s="3">
         <v>316</v>
       </c>
@@ -15131,7 +15177,7 @@
       <c r="L320" s="4"/>
       <c r="M320" s="4"/>
     </row>
-    <row r="321" spans="1:13" ht="18.75">
+    <row r="321" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A321" s="3">
         <v>317</v>
       </c>
@@ -15160,7 +15206,7 @@
       <c r="L321" s="4"/>
       <c r="M321" s="4"/>
     </row>
-    <row r="322" spans="1:13" ht="18.75">
+    <row r="322" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A322" s="3">
         <v>318</v>
       </c>
@@ -15189,7 +15235,7 @@
       <c r="L322" s="4"/>
       <c r="M322" s="4"/>
     </row>
-    <row r="323" spans="1:13" ht="18.75">
+    <row r="323" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A323" s="3">
         <v>319</v>
       </c>
@@ -15226,7 +15272,7 @@
       </c>
       <c r="M323" s="4"/>
     </row>
-    <row r="324" spans="1:13" ht="18.75">
+    <row r="324" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
         <v>320</v>
       </c>
@@ -15261,7 +15307,7 @@
       </c>
       <c r="M324" s="4"/>
     </row>
-    <row r="325" spans="1:13" ht="18.75">
+    <row r="325" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
         <v>321</v>
       </c>
@@ -15288,7 +15334,7 @@
       <c r="L325" s="4"/>
       <c r="M325" s="4"/>
     </row>
-    <row r="326" spans="1:13" ht="18.75">
+    <row r="326" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
         <v>322</v>
       </c>
@@ -15317,7 +15363,7 @@
       <c r="L326" s="4"/>
       <c r="M326" s="4"/>
     </row>
-    <row r="327" spans="1:13" ht="18.75">
+    <row r="327" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A327" s="3">
         <v>323</v>
       </c>
@@ -15352,7 +15398,7 @@
       </c>
       <c r="M327" s="4"/>
     </row>
-    <row r="328" spans="1:13" ht="18.75">
+    <row r="328" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
         <v>324</v>
       </c>
@@ -15389,7 +15435,7 @@
       </c>
       <c r="M328" s="4"/>
     </row>
-    <row r="329" spans="1:13" ht="18.75">
+    <row r="329" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A329" s="3">
         <v>325</v>
       </c>
@@ -15424,7 +15470,7 @@
       </c>
       <c r="M329" s="4"/>
     </row>
-    <row r="330" spans="1:13" ht="18.75">
+    <row r="330" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
         <v>326</v>
       </c>
@@ -15459,7 +15505,7 @@
       </c>
       <c r="M330" s="4"/>
     </row>
-    <row r="331" spans="1:13" ht="18.75">
+    <row r="331" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A331" s="3">
         <v>327</v>
       </c>
@@ -15496,7 +15542,7 @@
       </c>
       <c r="M331" s="4"/>
     </row>
-    <row r="332" spans="1:13" ht="18.75">
+    <row r="332" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
         <v>328</v>
       </c>
@@ -15531,7 +15577,7 @@
       </c>
       <c r="M332" s="4"/>
     </row>
-    <row r="333" spans="1:13" ht="18.75">
+    <row r="333" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A333" s="3">
         <v>329</v>
       </c>
@@ -15568,7 +15614,7 @@
       </c>
       <c r="M333" s="4"/>
     </row>
-    <row r="334" spans="1:13" ht="18.75">
+    <row r="334" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
         <v>330</v>
       </c>
@@ -15605,7 +15651,7 @@
       </c>
       <c r="M334" s="4"/>
     </row>
-    <row r="335" spans="1:13" ht="18.75">
+    <row r="335" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A335" s="3">
         <v>331</v>
       </c>
@@ -15640,7 +15686,7 @@
       </c>
       <c r="M335" s="4"/>
     </row>
-    <row r="336" spans="1:13" ht="18.75">
+    <row r="336" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
         <v>332</v>
       </c>
@@ -15677,7 +15723,7 @@
       </c>
       <c r="M336" s="4"/>
     </row>
-    <row r="337" spans="1:13" ht="18.75">
+    <row r="337" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A337" s="3">
         <v>333</v>
       </c>
@@ -15712,7 +15758,7 @@
       </c>
       <c r="M337" s="4"/>
     </row>
-    <row r="338" spans="1:13" ht="18.75">
+    <row r="338" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
         <v>334</v>
       </c>
@@ -15749,7 +15795,7 @@
       </c>
       <c r="M338" s="4"/>
     </row>
-    <row r="339" spans="1:13" ht="18.75">
+    <row r="339" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A339" s="3">
         <v>335</v>
       </c>
@@ -15786,7 +15832,7 @@
       </c>
       <c r="M339" s="4"/>
     </row>
-    <row r="340" spans="1:13" ht="18.75">
+    <row r="340" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
         <v>336</v>
       </c>
@@ -15823,7 +15869,7 @@
       </c>
       <c r="M340" s="4"/>
     </row>
-    <row r="341" spans="1:13" ht="30.75">
+    <row r="341" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A341" s="3">
         <v>337</v>
       </c>
@@ -15858,7 +15904,7 @@
       </c>
       <c r="M341" s="4"/>
     </row>
-    <row r="342" spans="1:13" ht="18.75">
+    <row r="342" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
         <v>338</v>
       </c>
@@ -15893,7 +15939,7 @@
       </c>
       <c r="M342" s="4"/>
     </row>
-    <row r="343" spans="1:13" ht="18.75">
+    <row r="343" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
         <v>339</v>
       </c>
@@ -15930,7 +15976,7 @@
       </c>
       <c r="M343" s="4"/>
     </row>
-    <row r="344" spans="1:13" ht="30.75">
+    <row r="344" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
         <v>340</v>
       </c>
@@ -15965,7 +16011,7 @@
       </c>
       <c r="M344" s="4"/>
     </row>
-    <row r="345" spans="1:13" ht="18.75">
+    <row r="345" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A345" s="3">
         <v>341</v>
       </c>
@@ -16000,7 +16046,7 @@
       </c>
       <c r="M345" s="4"/>
     </row>
-    <row r="346" spans="1:13" ht="18.75">
+    <row r="346" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A346" s="3">
         <v>342</v>
       </c>
@@ -16035,7 +16081,7 @@
       </c>
       <c r="M346" s="4"/>
     </row>
-    <row r="347" spans="1:13" ht="18.75">
+    <row r="347" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A347" s="3">
         <v>343</v>
       </c>
@@ -16072,7 +16118,7 @@
       </c>
       <c r="M347" s="4"/>
     </row>
-    <row r="348" spans="1:13" ht="18.75">
+    <row r="348" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A348" s="3">
         <v>344</v>
       </c>
@@ -16107,7 +16153,7 @@
       </c>
       <c r="M348" s="4"/>
     </row>
-    <row r="349" spans="1:13" ht="30.75">
+    <row r="349" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A349" s="3">
         <v>345</v>
       </c>
@@ -16142,7 +16188,7 @@
       </c>
       <c r="M349" s="4"/>
     </row>
-    <row r="350" spans="1:13" ht="18.75">
+    <row r="350" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A350" s="3">
         <v>346</v>
       </c>
@@ -16177,7 +16223,7 @@
       </c>
       <c r="M350" s="4"/>
     </row>
-    <row r="351" spans="1:13" ht="18.75">
+    <row r="351" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A351" s="3">
         <v>347</v>
       </c>
@@ -16212,7 +16258,7 @@
       </c>
       <c r="M351" s="4"/>
     </row>
-    <row r="352" spans="1:13" ht="18.75">
+    <row r="352" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
         <v>348</v>
       </c>
@@ -16246,7 +16292,7 @@
       </c>
       <c r="M352" s="4"/>
     </row>
-    <row r="353" spans="1:13" ht="18.75">
+    <row r="353" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A353" s="3">
         <v>349</v>
       </c>
@@ -16281,7 +16327,7 @@
       </c>
       <c r="M353" s="4"/>
     </row>
-    <row r="354" spans="1:13" ht="18.75">
+    <row r="354" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A354" s="3">
         <v>350</v>
       </c>
@@ -16318,7 +16364,7 @@
       </c>
       <c r="M354" s="4"/>
     </row>
-    <row r="355" spans="1:13" ht="18.75">
+    <row r="355" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A355" s="3">
         <v>351</v>
       </c>
@@ -16353,7 +16399,7 @@
       </c>
       <c r="M355" s="4"/>
     </row>
-    <row r="356" spans="1:13" ht="18.75">
+    <row r="356" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A356" s="3">
         <v>352</v>
       </c>
@@ -16384,7 +16430,7 @@
       </c>
       <c r="M356" s="4"/>
     </row>
-    <row r="357" spans="1:13" ht="18.75">
+    <row r="357" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A357" s="3">
         <v>353</v>
       </c>
@@ -16417,7 +16463,7 @@
       <c r="L357" s="2"/>
       <c r="M357" s="4"/>
     </row>
-    <row r="358" spans="1:13" ht="18.75">
+    <row r="358" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A358" s="3">
         <v>354</v>
       </c>
@@ -16444,7 +16490,7 @@
       <c r="L358" s="2"/>
       <c r="M358" s="4"/>
     </row>
-    <row r="359" spans="1:13" ht="18.75">
+    <row r="359" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A359" s="3">
         <v>355</v>
       </c>
@@ -16473,7 +16519,7 @@
       <c r="L359" s="2"/>
       <c r="M359" s="4"/>
     </row>
-    <row r="360" spans="1:13" ht="18.75">
+    <row r="360" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A360" s="3">
         <v>356</v>
       </c>
@@ -16502,7 +16548,7 @@
       <c r="L360" s="2"/>
       <c r="M360" s="4"/>
     </row>
-    <row r="361" spans="1:13" ht="18.75">
+    <row r="361" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A361" s="3">
         <v>357</v>
       </c>
@@ -16531,7 +16577,7 @@
       <c r="L361" s="2"/>
       <c r="M361" s="4"/>
     </row>
-    <row r="362" spans="1:13" ht="18.75">
+    <row r="362" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A362" s="3">
         <v>358</v>
       </c>
@@ -16560,7 +16606,7 @@
       <c r="L362" s="2"/>
       <c r="M362" s="4"/>
     </row>
-    <row r="363" spans="1:13" ht="18.75">
+    <row r="363" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A363" s="3">
         <v>359</v>
       </c>
@@ -16587,7 +16633,7 @@
       <c r="L363" s="2"/>
       <c r="M363" s="4"/>
     </row>
-    <row r="364" spans="1:13" ht="18.75">
+    <row r="364" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A364" s="3">
         <v>360</v>
       </c>
@@ -16616,7 +16662,7 @@
       <c r="L364" s="4"/>
       <c r="M364" s="4"/>
     </row>
-    <row r="365" spans="1:13" ht="18.75">
+    <row r="365" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A365" s="3">
         <v>361</v>
       </c>
@@ -16645,7 +16691,7 @@
       <c r="L365" s="4"/>
       <c r="M365" s="4"/>
     </row>
-    <row r="366" spans="1:13" ht="18.75">
+    <row r="366" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A366" s="3">
         <v>362</v>
       </c>
@@ -16674,7 +16720,7 @@
       <c r="L366" s="4"/>
       <c r="M366" s="4"/>
     </row>
-    <row r="367" spans="1:13" ht="18.75">
+    <row r="367" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A367" s="3">
         <v>363</v>
       </c>
@@ -16701,7 +16747,7 @@
       <c r="L367" s="4"/>
       <c r="M367" s="4"/>
     </row>
-    <row r="368" spans="1:13" ht="18.75">
+    <row r="368" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A368" s="3">
         <v>364</v>
       </c>
@@ -16730,7 +16776,7 @@
       <c r="L368" s="4"/>
       <c r="M368" s="4"/>
     </row>
-    <row r="369" spans="1:13" ht="18.75">
+    <row r="369" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A369" s="3">
         <v>365</v>
       </c>
@@ -16757,7 +16803,7 @@
       <c r="L369" s="4"/>
       <c r="M369" s="4"/>
     </row>
-    <row r="370" spans="1:13" ht="18.75">
+    <row r="370" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A370" s="3">
         <v>366</v>
       </c>
@@ -16786,7 +16832,7 @@
       <c r="L370" s="4"/>
       <c r="M370" s="4"/>
     </row>
-    <row r="371" spans="1:13" ht="18.75">
+    <row r="371" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A371" s="3">
         <v>367</v>
       </c>
@@ -16813,7 +16859,7 @@
       <c r="L371" s="4"/>
       <c r="M371" s="4"/>
     </row>
-    <row r="372" spans="1:13" ht="18.75">
+    <row r="372" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A372" s="3">
         <v>368</v>
       </c>
@@ -16842,7 +16888,7 @@
       <c r="L372" s="4"/>
       <c r="M372" s="4"/>
     </row>
-    <row r="373" spans="1:13" ht="18.75">
+    <row r="373" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A373" s="3">
         <v>369</v>
       </c>
@@ -16869,7 +16915,7 @@
       <c r="L373" s="4"/>
       <c r="M373" s="4"/>
     </row>
-    <row r="374" spans="1:13" ht="18.75">
+    <row r="374" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A374" s="3">
         <v>370</v>
       </c>
@@ -16904,7 +16950,7 @@
       </c>
       <c r="M374" s="4"/>
     </row>
-    <row r="375" spans="1:13" ht="18.75">
+    <row r="375" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A375" s="3">
         <v>371</v>
       </c>
@@ -16926,7 +16972,7 @@
       <c r="K375" s="4"/>
       <c r="M375" s="4"/>
     </row>
-    <row r="376" spans="1:13" ht="18.75">
+    <row r="376" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A376" s="3">
         <v>372</v>
       </c>
@@ -16949,7 +16995,7 @@
       <c r="L376" s="4"/>
       <c r="M376" s="4"/>
     </row>
-    <row r="377" spans="1:13" ht="18.75">
+    <row r="377" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A377" s="3">
         <v>373</v>
       </c>
@@ -16971,7 +17017,7 @@
       <c r="K377" s="4"/>
       <c r="M377" s="4"/>
     </row>
-    <row r="378" spans="1:13" ht="18.75">
+    <row r="378" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A378" s="3">
         <v>374</v>
       </c>
@@ -16988,7 +17034,7 @@
       <c r="L378" s="4"/>
       <c r="M378" s="4"/>
     </row>
-    <row r="379" spans="1:13" ht="18.75">
+    <row r="379" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A379" s="3">
         <v>375</v>
       </c>
@@ -17011,7 +17057,7 @@
       </c>
       <c r="M379" s="4"/>
     </row>
-    <row r="380" spans="1:13" ht="18.75">
+    <row r="380" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A380" s="3">
         <v>376</v>
       </c>
@@ -17028,7 +17074,7 @@
       <c r="L380" s="4"/>
       <c r="M380" s="4"/>
     </row>
-    <row r="381" spans="1:13" ht="18.75">
+    <row r="381" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A381" s="3">
         <v>377</v>
       </c>
@@ -17045,7 +17091,7 @@
       <c r="L381" s="4"/>
       <c r="M381" s="4"/>
     </row>
-    <row r="382" spans="1:13" ht="18.75">
+    <row r="382" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A382" s="3">
         <v>378</v>
       </c>
@@ -17062,7 +17108,7 @@
       <c r="L382" s="4"/>
       <c r="M382" s="4"/>
     </row>
-    <row r="383" spans="1:13" ht="18.75">
+    <row r="383" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A383" s="3">
         <v>379</v>
       </c>
@@ -17079,7 +17125,7 @@
       <c r="L383" s="4"/>
       <c r="M383" s="4"/>
     </row>
-    <row r="384" spans="1:13" ht="18.75">
+    <row r="384" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A384" s="3">
         <v>380</v>
       </c>
@@ -17096,7 +17142,7 @@
       <c r="L384" s="4"/>
       <c r="M384" s="4"/>
     </row>
-    <row r="385" spans="1:13" ht="18.75">
+    <row r="385" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A385" s="3">
         <v>381</v>
       </c>
@@ -17113,7 +17159,7 @@
       <c r="L385" s="4"/>
       <c r="M385" s="4"/>
     </row>
-    <row r="386" spans="1:13" ht="18.75">
+    <row r="386" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A386" s="3">
         <v>382</v>
       </c>
@@ -17130,7 +17176,7 @@
       <c r="L386" s="4"/>
       <c r="M386" s="4"/>
     </row>
-    <row r="387" spans="1:13" ht="18.75">
+    <row r="387" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A387" s="3">
         <v>383</v>
       </c>
@@ -17147,7 +17193,7 @@
       <c r="L387" s="4"/>
       <c r="M387" s="4"/>
     </row>
-    <row r="388" spans="1:13" ht="18.75">
+    <row r="388" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A388" s="3">
         <v>384</v>
       </c>
@@ -17164,7 +17210,7 @@
       <c r="L388" s="4"/>
       <c r="M388" s="4"/>
     </row>
-    <row r="389" spans="1:13" ht="18.75">
+    <row r="389" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A389" s="3">
         <v>385</v>
       </c>
@@ -17181,7 +17227,7 @@
       <c r="L389" s="4"/>
       <c r="M389" s="4"/>
     </row>
-    <row r="390" spans="1:13" ht="18.75">
+    <row r="390" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A390" s="3">
         <v>386</v>
       </c>
@@ -17198,7 +17244,7 @@
       <c r="L390" s="4"/>
       <c r="M390" s="4"/>
     </row>
-    <row r="391" spans="1:13" ht="18.75">
+    <row r="391" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A391" s="3">
         <v>387</v>
       </c>
@@ -17215,7 +17261,7 @@
       <c r="L391" s="4"/>
       <c r="M391" s="4"/>
     </row>
-    <row r="392" spans="1:13" ht="18.75">
+    <row r="392" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A392" s="3">
         <v>388</v>
       </c>
@@ -17232,7 +17278,7 @@
       <c r="L392" s="4"/>
       <c r="M392" s="4"/>
     </row>
-    <row r="393" spans="1:13" ht="18.75">
+    <row r="393" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A393" s="3">
         <v>389</v>
       </c>
@@ -17249,7 +17295,7 @@
       <c r="L393" s="4"/>
       <c r="M393" s="4"/>
     </row>
-    <row r="394" spans="1:13" ht="18.75">
+    <row r="394" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A394" s="3">
         <v>390</v>
       </c>
@@ -17266,7 +17312,7 @@
       <c r="L394" s="4"/>
       <c r="M394" s="4"/>
     </row>
-    <row r="395" spans="1:13" ht="18.75">
+    <row r="395" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A395" s="3">
         <v>391</v>
       </c>
@@ -17283,7 +17329,7 @@
       <c r="L395" s="4"/>
       <c r="M395" s="4"/>
     </row>
-    <row r="396" spans="1:13" ht="18.75">
+    <row r="396" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A396" s="3">
         <v>392</v>
       </c>
@@ -17300,7 +17346,7 @@
       <c r="L396" s="4"/>
       <c r="M396" s="4"/>
     </row>
-    <row r="397" spans="1:13" ht="18.75">
+    <row r="397" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A397" s="3">
         <v>393</v>
       </c>
@@ -17317,7 +17363,7 @@
       <c r="L397" s="4"/>
       <c r="M397" s="4"/>
     </row>
-    <row r="398" spans="1:13" ht="18.75">
+    <row r="398" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A398" s="3">
         <v>394</v>
       </c>
@@ -17334,7 +17380,7 @@
       <c r="L398" s="4"/>
       <c r="M398" s="4"/>
     </row>
-    <row r="399" spans="1:13" ht="18.75">
+    <row r="399" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A399" s="3">
         <v>395</v>
       </c>
@@ -17351,7 +17397,7 @@
       <c r="L399" s="4"/>
       <c r="M399" s="4"/>
     </row>
-    <row r="400" spans="1:13" ht="18.75">
+    <row r="400" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A400" s="3">
         <v>396</v>
       </c>
@@ -17368,7 +17414,7 @@
       <c r="L400" s="4"/>
       <c r="M400" s="4"/>
     </row>
-    <row r="401" spans="1:13" ht="18.75">
+    <row r="401" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A401" s="3">
         <v>397</v>
       </c>
@@ -17385,7 +17431,7 @@
       <c r="L401" s="4"/>
       <c r="M401" s="4"/>
     </row>
-    <row r="402" spans="1:13" ht="18.75">
+    <row r="402" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A402" s="3">
         <v>398</v>
       </c>
@@ -17402,7 +17448,7 @@
       <c r="L402" s="4"/>
       <c r="M402" s="4"/>
     </row>
-    <row r="403" spans="1:13" ht="18.75">
+    <row r="403" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A403" s="3">
         <v>399</v>
       </c>
@@ -17419,7 +17465,7 @@
       <c r="L403" s="4"/>
       <c r="M403" s="4"/>
     </row>
-    <row r="404" spans="1:13" ht="18.75">
+    <row r="404" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A404" s="3">
         <v>400</v>
       </c>
@@ -17447,21 +17493,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M254"/>
   <sheetViews>
     <sheetView topLeftCell="A238" workbookViewId="0">
       <selection activeCell="G252" sqref="G252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" ht="15.75">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1219</v>
       </c>
@@ -17478,7 +17524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75">
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -17495,7 +17541,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -17512,7 +17558,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75">
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -17529,7 +17575,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -17546,7 +17592,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -17563,7 +17609,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -17580,7 +17626,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75">
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -17597,7 +17643,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75">
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -17617,7 +17663,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75">
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -17637,7 +17683,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75">
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -17657,7 +17703,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75">
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -17677,7 +17723,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75">
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -17697,7 +17743,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75">
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -17717,7 +17763,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75">
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -17737,7 +17783,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75">
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -17757,7 +17803,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75">
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -17777,7 +17823,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16.5" customHeight="1">
+    <row r="20" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -17797,7 +17843,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="37.5" customHeight="1">
+    <row r="21" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -17817,7 +17863,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75">
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -17838,7 +17884,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75">
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -17855,7 +17901,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75">
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -17872,7 +17918,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75">
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -17889,7 +17935,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75">
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -17906,7 +17952,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75">
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -17923,7 +17969,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75">
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -17940,7 +17986,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75">
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -17957,7 +18003,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75">
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -17974,7 +18020,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75">
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -17991,7 +18037,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75">
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -18008,7 +18054,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75">
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -18025,7 +18071,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -18042,7 +18088,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75">
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -18059,7 +18105,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -18076,7 +18122,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -18093,7 +18139,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -18110,7 +18156,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -18127,7 +18173,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -18144,7 +18190,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -18161,7 +18207,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75">
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -18178,7 +18224,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75">
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -18195,7 +18241,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75">
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -18212,7 +18258,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75">
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -18229,7 +18275,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75">
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -18246,7 +18292,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75">
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -18263,7 +18309,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75">
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -18280,7 +18326,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75">
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -18297,7 +18343,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75">
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -18314,7 +18360,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75">
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -18331,7 +18377,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75">
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>49</v>
       </c>
@@ -18348,7 +18394,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75">
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>50</v>
       </c>
@@ -18365,7 +18411,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75">
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>51</v>
       </c>
@@ -18382,7 +18428,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75">
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>52</v>
       </c>
@@ -18399,7 +18445,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75">
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>53</v>
       </c>
@@ -18416,7 +18462,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75">
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>54</v>
       </c>
@@ -18433,7 +18479,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75">
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>55</v>
       </c>
@@ -18450,7 +18496,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75">
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>56</v>
       </c>
@@ -18467,7 +18513,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75">
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>57</v>
       </c>
@@ -18484,7 +18530,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75">
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>58</v>
       </c>
@@ -18501,7 +18547,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75">
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>59</v>
       </c>
@@ -18518,7 +18564,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75">
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>60</v>
       </c>
@@ -18535,7 +18581,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75">
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>61</v>
       </c>
@@ -18552,7 +18598,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75">
+    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>62</v>
       </c>
@@ -18569,7 +18615,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75">
+    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>63</v>
       </c>
@@ -18586,7 +18632,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75">
+    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>64</v>
       </c>
@@ -18603,7 +18649,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75">
+    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>65</v>
       </c>
@@ -18620,7 +18666,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75">
+    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>66</v>
       </c>
@@ -18637,7 +18683,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75">
+    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>67</v>
       </c>
@@ -18654,7 +18700,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>68</v>
       </c>
@@ -18671,7 +18717,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75">
+    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>69</v>
       </c>
@@ -18688,7 +18734,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75">
+    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>70</v>
       </c>
@@ -18705,7 +18751,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75">
+    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>71</v>
       </c>
@@ -18722,7 +18768,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75">
+    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>72</v>
       </c>
@@ -18739,7 +18785,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75">
+    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>73</v>
       </c>
@@ -18756,7 +18802,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75">
+    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>74</v>
       </c>
@@ -18773,7 +18819,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75">
+    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>75</v>
       </c>
@@ -18790,7 +18836,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75">
+    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>76</v>
       </c>
@@ -18807,7 +18853,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75">
+    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>77</v>
       </c>
@@ -18824,7 +18870,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75">
+    <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>78</v>
       </c>
@@ -18841,7 +18887,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75">
+    <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>79</v>
       </c>
@@ -18858,7 +18904,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75">
+    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>80</v>
       </c>
@@ -18875,7 +18921,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75">
+    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>81</v>
       </c>
@@ -18892,7 +18938,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75">
+    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>82</v>
       </c>
@@ -18909,7 +18955,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75">
+    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>83</v>
       </c>
@@ -18926,7 +18972,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75">
+    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>84</v>
       </c>
@@ -18943,7 +18989,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75">
+    <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>85</v>
       </c>
@@ -18960,7 +19006,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75">
+    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>86</v>
       </c>
@@ -18977,7 +19023,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75">
+    <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>87</v>
       </c>
@@ -18994,7 +19040,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75">
+    <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>88</v>
       </c>
@@ -19011,7 +19057,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75">
+    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>89</v>
       </c>
@@ -19028,7 +19074,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75">
+    <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>90</v>
       </c>
@@ -19045,7 +19091,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75">
+    <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>91</v>
       </c>
@@ -19062,7 +19108,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75">
+    <row r="95" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>92</v>
       </c>
@@ -19079,7 +19125,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75">
+    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>93</v>
       </c>
@@ -19096,7 +19142,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75">
+    <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>94</v>
       </c>
@@ -19113,7 +19159,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75">
+    <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>95</v>
       </c>
@@ -19130,7 +19176,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75">
+    <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>96</v>
       </c>
@@ -19147,7 +19193,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75">
+    <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>97</v>
       </c>
@@ -19164,7 +19210,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75">
+    <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>98</v>
       </c>
@@ -19181,7 +19227,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75">
+    <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>99</v>
       </c>
@@ -19198,7 +19244,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75">
+    <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>100</v>
       </c>
@@ -19215,7 +19261,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75">
+    <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>101</v>
       </c>
@@ -19232,7 +19278,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75">
+    <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>102</v>
       </c>
@@ -19249,7 +19295,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75">
+    <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>103</v>
       </c>
@@ -19266,7 +19312,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75">
+    <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>104</v>
       </c>
@@ -19283,7 +19329,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75">
+    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>105</v>
       </c>
@@ -19300,7 +19346,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75">
+    <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>106</v>
       </c>
@@ -19317,7 +19363,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75">
+    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>107</v>
       </c>
@@ -19334,7 +19380,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75">
+    <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>108</v>
       </c>
@@ -19351,7 +19397,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75">
+    <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>109</v>
       </c>
@@ -19368,7 +19414,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75">
+    <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>110</v>
       </c>
@@ -19385,7 +19431,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75">
+    <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>111</v>
       </c>
@@ -19402,7 +19448,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.75">
+    <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>112</v>
       </c>
@@ -19419,7 +19465,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75">
+    <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>113</v>
       </c>
@@ -19436,7 +19482,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.75">
+    <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>114</v>
       </c>
@@ -19453,7 +19499,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75">
+    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>115</v>
       </c>
@@ -19470,7 +19516,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75">
+    <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>116</v>
       </c>
@@ -19487,7 +19533,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75">
+    <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>117</v>
       </c>
@@ -19504,7 +19550,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.75">
+    <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>118</v>
       </c>
@@ -19521,7 +19567,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75">
+    <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>119</v>
       </c>
@@ -19538,7 +19584,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15.75">
+    <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>120</v>
       </c>
@@ -19555,7 +19601,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15.75">
+    <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>121</v>
       </c>
@@ -19572,7 +19618,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75">
+    <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>122</v>
       </c>
@@ -19589,7 +19635,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75">
+    <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>123</v>
       </c>
@@ -19606,7 +19652,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75">
+    <row r="127" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>124</v>
       </c>
@@ -19623,7 +19669,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75">
+    <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>125</v>
       </c>
@@ -19640,7 +19686,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75">
+    <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>126</v>
       </c>
@@ -19657,7 +19703,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75">
+    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>127</v>
       </c>
@@ -19674,7 +19720,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.75">
+    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>128</v>
       </c>
@@ -19691,7 +19737,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75">
+    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>129</v>
       </c>
@@ -19708,7 +19754,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.75">
+    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>130</v>
       </c>
@@ -19725,7 +19771,7 @@
         <v>11570</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.75">
+    <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>131</v>
       </c>
@@ -19742,7 +19788,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.75">
+    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>132</v>
       </c>
@@ -19759,7 +19805,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75">
+    <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>133</v>
       </c>
@@ -19776,7 +19822,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.75">
+    <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>134</v>
       </c>
@@ -19793,7 +19839,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75">
+    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>135</v>
       </c>
@@ -19810,7 +19856,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.75">
+    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>136</v>
       </c>
@@ -19827,7 +19873,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.75">
+    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>137</v>
       </c>
@@ -19844,7 +19890,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.75">
+    <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>138</v>
       </c>
@@ -19861,7 +19907,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75">
+    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>139</v>
       </c>
@@ -19878,7 +19924,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.75">
+    <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>140</v>
       </c>
@@ -19895,7 +19941,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.75">
+    <row r="144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>141</v>
       </c>
@@ -19912,7 +19958,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15.75">
+    <row r="145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>142</v>
       </c>
@@ -19929,7 +19975,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15.75">
+    <row r="146" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>143</v>
       </c>
@@ -19946,7 +19992,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.75">
+    <row r="147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>144</v>
       </c>
@@ -19963,7 +20009,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15.75">
+    <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>145</v>
       </c>
@@ -19980,7 +20026,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15.75">
+    <row r="149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>146</v>
       </c>
@@ -19997,7 +20043,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.75">
+    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>147</v>
       </c>
@@ -20014,7 +20060,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.75">
+    <row r="151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>148</v>
       </c>
@@ -20031,7 +20077,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.75">
+    <row r="152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>149</v>
       </c>
@@ -20048,7 +20094,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15.75">
+    <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>150</v>
       </c>
@@ -20065,7 +20111,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.75">
+    <row r="154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>151</v>
       </c>
@@ -20082,7 +20128,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15.75">
+    <row r="155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>152</v>
       </c>
@@ -20099,7 +20145,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.75">
+    <row r="156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>153</v>
       </c>
@@ -20116,7 +20162,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.75">
+    <row r="157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>154</v>
       </c>
@@ -20133,7 +20179,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15.75">
+    <row r="158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>155</v>
       </c>
@@ -20150,7 +20196,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15.75">
+    <row r="159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>156</v>
       </c>
@@ -20167,7 +20213,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15.75">
+    <row r="160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>157</v>
       </c>
@@ -20184,7 +20230,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15.75">
+    <row r="161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>158</v>
       </c>
@@ -20201,7 +20247,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15.75">
+    <row r="162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>159</v>
       </c>
@@ -20218,7 +20264,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15.75">
+    <row r="163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>160</v>
       </c>
@@ -20235,7 +20281,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15.75">
+    <row r="164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>161</v>
       </c>
@@ -20252,7 +20298,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15.75">
+    <row r="165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>162</v>
       </c>
@@ -20269,7 +20315,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15.75">
+    <row r="166" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>163</v>
       </c>
@@ -20286,7 +20332,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15.75">
+    <row r="167" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>164</v>
       </c>
@@ -20303,7 +20349,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15.75">
+    <row r="168" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>165</v>
       </c>
@@ -20320,7 +20366,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15.75">
+    <row r="169" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>166</v>
       </c>
@@ -20337,7 +20383,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15.75">
+    <row r="170" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>167</v>
       </c>
@@ -20354,7 +20400,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15.75">
+    <row r="171" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>168</v>
       </c>
@@ -20371,7 +20417,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15.75">
+    <row r="172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>169</v>
       </c>
@@ -20388,7 +20434,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15.75">
+    <row r="173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>170</v>
       </c>
@@ -20405,7 +20451,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15.75">
+    <row r="174" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>171</v>
       </c>
@@ -20422,7 +20468,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15.75">
+    <row r="175" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>172</v>
       </c>
@@ -20439,7 +20485,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15.75">
+    <row r="176" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>173</v>
       </c>
@@ -20456,7 +20502,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15.75">
+    <row r="177" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>174</v>
       </c>
@@ -20473,7 +20519,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15.75">
+    <row r="178" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>175</v>
       </c>
@@ -20490,7 +20536,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15.75">
+    <row r="179" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>176</v>
       </c>
@@ -20507,7 +20553,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15.75">
+    <row r="180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>177</v>
       </c>
@@ -20524,7 +20570,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15.75">
+    <row r="181" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>178</v>
       </c>
@@ -20541,7 +20587,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15.75">
+    <row r="182" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>179</v>
       </c>
@@ -20558,7 +20604,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15.75">
+    <row r="183" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>180</v>
       </c>
@@ -20575,7 +20621,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15.75">
+    <row r="184" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>181</v>
       </c>
@@ -20592,7 +20638,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15.75">
+    <row r="185" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>182</v>
       </c>
@@ -20609,7 +20655,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15.75">
+    <row r="186" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>183</v>
       </c>
@@ -20626,7 +20672,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15.75">
+    <row r="187" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>184</v>
       </c>
@@ -20643,7 +20689,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15.75">
+    <row r="188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>185</v>
       </c>
@@ -20660,7 +20706,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15.75">
+    <row r="189" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>186</v>
       </c>
@@ -20677,7 +20723,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15.75">
+    <row r="190" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>187</v>
       </c>
@@ -20694,7 +20740,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.75">
+    <row r="191" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>188</v>
       </c>
@@ -20711,7 +20757,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15.75">
+    <row r="192" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>189</v>
       </c>
@@ -20728,7 +20774,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15.75">
+    <row r="193" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>190</v>
       </c>
@@ -20745,7 +20791,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15.75">
+    <row r="194" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>191</v>
       </c>
@@ -20762,7 +20808,7 @@
         <v>8970</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15.75">
+    <row r="195" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>192</v>
       </c>
@@ -20779,7 +20825,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15.75">
+    <row r="196" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>193</v>
       </c>
@@ -20796,7 +20842,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15.75">
+    <row r="197" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>194</v>
       </c>
@@ -20813,7 +20859,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15.75">
+    <row r="198" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>195</v>
       </c>
@@ -20830,7 +20876,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15.75">
+    <row r="199" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>196</v>
       </c>
@@ -20847,7 +20893,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15.75">
+    <row r="200" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>197</v>
       </c>
@@ -20864,7 +20910,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15.75">
+    <row r="201" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>198</v>
       </c>
@@ -20881,7 +20927,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15.75">
+    <row r="202" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>199</v>
       </c>
@@ -20898,7 +20944,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15.75">
+    <row r="203" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>200</v>
       </c>
@@ -20915,7 +20961,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15.75">
+    <row r="204" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>201</v>
       </c>
@@ -20932,7 +20978,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15.75">
+    <row r="205" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>202</v>
       </c>
@@ -20949,7 +20995,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15.75">
+    <row r="206" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>203</v>
       </c>
@@ -20966,7 +21012,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15.75">
+    <row r="207" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>204</v>
       </c>
@@ -20983,7 +21029,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15.75">
+    <row r="208" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>205</v>
       </c>
@@ -21000,7 +21046,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15.75">
+    <row r="209" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>206</v>
       </c>
@@ -21017,7 +21063,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15.75">
+    <row r="210" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>207</v>
       </c>
@@ -21034,7 +21080,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15.75">
+    <row r="211" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>208</v>
       </c>
@@ -21051,7 +21097,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75">
+    <row r="212" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>209</v>
       </c>
@@ -21068,7 +21114,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15.75">
+    <row r="213" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>210</v>
       </c>
@@ -21085,7 +21131,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15.75">
+    <row r="214" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>211</v>
       </c>
@@ -21102,7 +21148,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15.75">
+    <row r="215" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>212</v>
       </c>
@@ -21119,7 +21165,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15.75">
+    <row r="216" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>213</v>
       </c>
@@ -21136,7 +21182,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15.75">
+    <row r="217" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>214</v>
       </c>
@@ -21153,7 +21199,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15.75">
+    <row r="218" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>215</v>
       </c>
@@ -21170,7 +21216,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15.75">
+    <row r="219" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>216</v>
       </c>
@@ -21187,7 +21233,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15.75">
+    <row r="220" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>217</v>
       </c>
@@ -21204,7 +21250,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>218</v>
       </c>
@@ -21221,7 +21267,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>219</v>
       </c>
@@ -21238,7 +21284,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15.75">
+    <row r="223" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>220</v>
       </c>
@@ -21255,7 +21301,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15.75">
+    <row r="224" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>221</v>
       </c>
@@ -21272,7 +21318,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>222</v>
       </c>
@@ -21289,7 +21335,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>223</v>
       </c>
@@ -21306,7 +21352,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15.75">
+    <row r="227" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>224</v>
       </c>
@@ -21323,7 +21369,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>225</v>
       </c>
@@ -21340,7 +21386,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>226</v>
       </c>
@@ -21357,7 +21403,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>227</v>
       </c>
@@ -21374,7 +21420,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>228</v>
       </c>
@@ -21391,7 +21437,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>229</v>
       </c>
@@ -21408,7 +21454,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>230</v>
       </c>
@@ -21425,7 +21471,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>231</v>
       </c>
@@ -21442,7 +21488,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>232</v>
       </c>
@@ -21459,7 +21505,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>233</v>
       </c>
@@ -21476,7 +21522,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>234</v>
       </c>
@@ -21493,7 +21539,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>235</v>
       </c>
@@ -21510,7 +21556,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>236</v>
       </c>
@@ -21527,7 +21573,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>237</v>
       </c>
@@ -21544,7 +21590,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>238</v>
       </c>
@@ -21561,7 +21607,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>239</v>
       </c>
@@ -21578,7 +21624,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>240</v>
       </c>
@@ -21595,7 +21641,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>241</v>
       </c>
@@ -21612,7 +21658,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>242</v>
       </c>
@@ -21629,7 +21675,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>243</v>
       </c>
@@ -21649,7 +21695,7 @@
         <v>183842</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>244</v>
       </c>
@@ -21669,7 +21715,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="20">
         <v>245</v>
       </c>
@@ -21686,7 +21732,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="20">
         <v>246</v>
       </c>
@@ -21707,7 +21753,7 @@
         <v>175652</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="20">
         <v>247</v>
       </c>
@@ -21724,7 +21770,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E254">
         <f>SUM(E4:E250)</f>
         <v>185012</v>
@@ -21736,12 +21782,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
